--- a/Cases/TopApi.xlsx
+++ b/Cases/TopApi.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547196AD-45E5-49D5-8802-B8C5D508EBFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8674CAB-F6BE-4E72-B8E8-48CF9947416A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,15 +54,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"get config successed","serverTime":int, "data":[{"id":1,"appId":"topgrowth.net","configKey":"today_special","content":str,"desc":"今日特价商品展示配置","version":int,"lastUpdateTime":int}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{ "data":[{"content":int}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"get config successed","serverTime":int, "data":[{"id":1,"appId":"topgrowth.net","configKey":"today_special","content":str,"desc":"今日特价商品展示配置","version":int}]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,15 +421,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="94.5" customWidth="1"/>
+    <col min="3" max="3" width="58.75" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
     <col min="5" max="5" width="99.125" customWidth="1"/>
   </cols>
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/Cases/TopApi.xlsx
+++ b/Cases/TopApi.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8674CAB-F6BE-4E72-B8E8-48CF9947416A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93687444-98B0-42B9-9526-F52DB1AE6D10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,11 +38,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.topgrowth.net/api/followerGrow/config/v1/getConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页配置获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"appId":"topgrowth.net","configKeys":["today_special"]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.topgrowth.net/api/followerGrow/config/v1/getConfig</t>
+    <t>产品信息获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -50,19 +66,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页配置获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ "data":[{"content":int}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"get config successed","serverTime":int, "data":[{"id":1,"appId":"topgrowth.net","configKey":"today_special","content":str,"desc":"今日特价商品展示配置","version":int}]}</t>
+    <t>https://www.topgrowth.net/api/followerGrow/product/v1/listProducts/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appId":"autotest","productType":"all","cc":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"get config successed","serverTime":int, "data":[{'id': 1, 'appId': 'topgrowth.net', 'configKey': 'today_special', 'content':str, 'desc':str, 'version': 1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"productType:all","serverTime":int,"data":{"general":And(list,  lambda x: len(x) &gt; 0),"today_special":And(list,  lambda x: len(x) &gt; 0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.topgrowth.net/api/followerGrow/userAction/v1/getEnquiries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Enquiries信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"index":0,"volume":10,"appId":"topgrowth.net"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","serverTime":int,"data":{"enquiries":And(list, lambda x: len(x) &gt; 0),"enquiriesCount":And(int, lambda x: x &gt; 0)}}</t>
+  </si>
+  <si>
+    <t>https://www.topgrowth.net/api/followerGrow/userAction/v1/getReviews</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Reviews信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","serverTime":int,"data":{"reviews":And(list, lambda x: len(x) &gt; 0),"reviewsCount":And(int, lambda x: x &gt; 0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/webapi/v1/queryPosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":"5876758509","cursor":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/webapi/v1/getUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"jagi"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Ins用户post信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Ins用户foloowers信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query posts success","serverTime":int,"data":{"count":And(int, lambda x: x&gt;0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Get user info success","serverTime":int,"data":{"post_count":And(int, lambda x: x&gt;0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/trade/web/v1/createOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Create order successed","serverTime":int,"data":str}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"webOrder":{"appId":"autotest","uid":"298238765578","amount":0.01,"pay":0.01,"currency":"USD","followersCount":33,"receiver":"jagi","myPromoCode":"BANXTN","usePromoCode":"","landingPage":"","productList":[{"productId":"autotest:today_special:USD:FOLLOW:1:LIKE:1","productType":"today_special","amount":0.01,"notes":["Today Special A"],"multiple":1,"conditions":{"cc":[],"languages":[],"regions":[],"gender":""},"tasks":[{"taskType":"FOLLOW","taskCount":1,"taskInfo":{"profilePicUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/69db4ac3b66f26b3ca5724ff1bac243d/5D902416/t51.2885-19/s150x150/12331401_1766961593527295_1005562730_a.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","userId":"245488","userName":"jagi"}}]},{"productId":"autotest:today_special:USD:FOLLOW:1:LIKE:1","productType":"today_special","amount":0.01,"notes":["Today Special B"],"multiple":1,"conditions":{"cc":[],"languages":[],"regions":[],"gender":""},"tasks":[{"taskType":"LIKE","taskCount":1,"taskInfo":{"mediaId":"1603048129036133257","mediaUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/d82ec288df96ec60f8da8b72b37b2bc3/5D825C9C/t51.2885-15/e35/c0.135.1080.1080a/s150x150/21688692_369088976859224_3416807227414020096_n.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","profilePicUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/69db4ac3b66f26b3ca5724ff1bac243d/5D902416/t51.2885-19/s150x150/12331401_1766961593527295_1005562730_a.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","shortcode":"BY_K8exDaOJ","userId":"245488","userName":"jagi"}}]}]}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/trade/web/v1/getOrderInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Get order success","serverTime":int,"data":dict}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appId":"autotest","orderId":"1201906130300004"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="58.75" customWidth="1"/>
+    <col min="3" max="3" width="80.75" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
     <col min="5" max="5" width="99.125" customWidth="1"/>
   </cols>
@@ -448,66 +559,144 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
@@ -539,7 +728,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
@@ -597,11 +786,11 @@
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
     </row>
@@ -711,10 +900,9 @@
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="3"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
@@ -763,17 +951,20 @@
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{FFB520F3-D06B-457F-A848-09136ACF55F2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EF352FEA-BCB9-4509-ADDD-46371B814070}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{12F3F614-F90E-4F4C-B775-7914278F62E4}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F6933DC2-A14E-455F-9EFA-237ABBA77345}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E0500221-11CD-4E42-BE01-D1767C05F478}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{FC54A7F2-2F77-4A19-A47B-B4803DE9EC6E}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{1C796C1A-A55E-4E38-87DD-9FB4809CE4D4}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{32C80C08-7D10-4FBF-8380-B4D43271B4A9}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{0552613B-778A-47DE-BDF3-6A99521408ED}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{0ADA4C9A-90E8-414E-9F60-1716A442EEBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Cases/TopApi.xlsx
+++ b/Cases/TopApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93687444-98B0-42B9-9526-F52DB1AE6D10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B3B9F-ADCC-4689-A81D-8EB27BDD256A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页配置获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品信息获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,41 +66,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"get config successed","serverTime":int, "data":[{'id': 1, 'appId': 'topgrowth.net', 'configKey': 'today_special', 'content':str, 'desc':str, 'version': 1}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"productType:all","serverTime":int,"data":{"general":And(list,  lambda x: len(x) &gt; 0),"today_special":And(list,  lambda x: len(x) &gt; 0)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.topgrowth.net/api/followerGrow/userAction/v1/getEnquiries</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取Enquiries信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"index":0,"volume":10,"appId":"topgrowth.net"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","serverTime":int,"data":{"enquiries":And(list, lambda x: len(x) &gt; 0),"enquiriesCount":And(int, lambda x: x &gt; 0)}}</t>
-  </si>
-  <si>
     <t>https://www.topgrowth.net/api/followerGrow/userAction/v1/getReviews</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取Reviews信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","serverTime":int,"data":{"reviews":And(list, lambda x: len(x) &gt; 0),"reviewsCount":And(int, lambda x: x &gt; 0)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/webapi/v1/queryPosts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,34 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取Ins用户post信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取Ins用户foloowers信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Query posts success","serverTime":int,"data":{"count":And(int, lambda x: x&gt;0)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Get user info success","serverTime":int,"data":{"post_count":And(int, lambda x: x&gt;0)}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://dmi1nvxd3xiy7.cloudfront.net/followerGrow/trade/web/v1/createOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Create order successed","serverTime":int,"data":str}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"webOrder":{"appId":"autotest","uid":"298238765578","amount":0.01,"pay":0.01,"currency":"USD","followersCount":33,"receiver":"jagi","myPromoCode":"BANXTN","usePromoCode":"","landingPage":"","productList":[{"productId":"autotest:today_special:USD:FOLLOW:1:LIKE:1","productType":"today_special","amount":0.01,"notes":["Today Special A"],"multiple":1,"conditions":{"cc":[],"languages":[],"regions":[],"gender":""},"tasks":[{"taskType":"FOLLOW","taskCount":1,"taskInfo":{"profilePicUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/69db4ac3b66f26b3ca5724ff1bac243d/5D902416/t51.2885-19/s150x150/12331401_1766961593527295_1005562730_a.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","userId":"245488","userName":"jagi"}}]},{"productId":"autotest:today_special:USD:FOLLOW:1:LIKE:1","productType":"today_special","amount":0.01,"notes":["Today Special B"],"multiple":1,"conditions":{"cc":[],"languages":[],"regions":[],"gender":""},"tasks":[{"taskType":"LIKE","taskCount":1,"taskInfo":{"mediaId":"1603048129036133257","mediaUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/d82ec288df96ec60f8da8b72b37b2bc3/5D825C9C/t51.2885-15/e35/c0.135.1080.1080a/s150x150/21688692_369088976859224_3416807227414020096_n.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","profilePicUrl":"https://scontent-sjc3-1.cdninstagram.com/vp/69db4ac3b66f26b3ca5724ff1bac243d/5D902416/t51.2885-19/s150x150/12331401_1766961593527295_1005562730_a.jpg?_nc_ht=scontent-sjc3-1.cdninstagram.com","shortcode":"BY_K8exDaOJ","userId":"245488","userName":"jagi"}}]}]}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,15 +110,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode":0,"errorCode":0,"message":"Get order success","serverTime":int,"data":dict}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appId":"autotest","orderId":"1201906130300004"}</t>
+    <t>{"appId":"autotest","orderId":"201906180200001"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gainfollowers.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.topgrowth.net/</t>
+  </si>
+  <si>
+    <t>https://www.topgrowth.net/get-followers</t>
+  </si>
+  <si>
+    <t>https://www.topgrowth.net/get-hearts</t>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"get config successed", "data":[{'id': 1, 'appId': 'topgrowth.net', 'configKey': 'today_special', 'content':object, 'version': 1}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"productType:all","data":{"general":And(list,  lambda x: len(x) &gt; 0),"today_special":And(list,  lambda x: len(x) &gt; 0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Get order success","data":object}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Create order successed","data":object}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Get user info success","data":{"post_count":And(int, lambda x: x&gt;0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query posts success","data":{"count":And(int, lambda x: x&gt;0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","data":{"reviews":And(list, lambda x: len(x) &gt; 0),"reviewsCount":And(int, lambda x: x &gt; 0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":0,"errorCode":0,"message":"Query successed","data":{"enquiries":And(list, lambda x: len(x) &gt; 0),"enquiriesCount":And(int, lambda x: x &gt; 0)}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-gainfollower主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-TopGrowth主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-TopGrowth Followers页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-TopGrowth likes页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-gainfollowers followers页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页-gainfollowers likes页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gainfollowers.com/boost-followers.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gainfollowers.com/boost-likes.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth首页配置获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth产品信息获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth获取Enquiries信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth获取Reviews信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth获取Ins用户post信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth获取Ins用户foloowers信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口-TopGrowth查询订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -249,6 +303,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -530,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,7 +600,7 @@
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="80.75" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
-    <col min="5" max="5" width="99.125" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,12 +617,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -573,154 +631,220 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="4"/>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="4"/>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
@@ -728,7 +852,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
@@ -786,11 +910,11 @@
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
     </row>
@@ -900,9 +1024,10 @@
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="2"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
@@ -952,8 +1077,16 @@
     <row r="77" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2"/>
     </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B9 B10:B1048576" xr:uid="{9553D8C4-C9A8-4E95-8892-5744404145DE}">
+      <formula1>"post,get,status"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{12F3F614-F90E-4F4C-B775-7914278F62E4}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F6933DC2-A14E-455F-9EFA-237ABBA77345}"/>
@@ -963,8 +1096,14 @@
     <hyperlink ref="C9" r:id="rId6" xr:uid="{32C80C08-7D10-4FBF-8380-B4D43271B4A9}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{0552613B-778A-47DE-BDF3-6A99521408ED}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{0ADA4C9A-90E8-414E-9F60-1716A442EEBC}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{1942C831-F5AD-4701-90E7-42F9618B73A4}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{AEBA69C0-8C1D-4DBD-8F72-ADDE8921543D}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{A2CDCA17-EF6B-4C9D-ABE7-B3205388A954}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{D23A5F98-F18F-4D7E-8781-84F623A7AE49}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{F657FD6F-BD02-4B67-B4F4-415AF2771D72}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{2BB3722A-0F49-416D-9DE1-436C084A8AB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>